--- a/data/trans_orig/P34A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CECE87DA-6759-4E1F-BBF9-A5BEB3765912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6263622D-BEAF-4E98-8CEE-ADD686930437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96B8DCBD-0218-4F4E-BA21-46855C1EDF08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7ABEDAE4-5EC5-4B66-B23E-756BBB834D28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,59%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>36,33%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>40,24%</t>
   </si>
   <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>55,18%</t>
   </si>
   <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>44,36%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>44,49%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>49,39%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>55,94%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,25 +311,25 @@
     <t>50,51%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
   </si>
   <si>
     <t>43,85%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>47,09%</t>
   </si>
   <si>
-    <t>43,38%</t>
+    <t>43,57%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -338,19 +338,19 @@
     <t>49,49%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>56,15%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
   <si>
     <t>52,91%</t>
@@ -359,7 +359,7 @@
     <t>49,3%</t>
   </si>
   <si>
-    <t>56,62%</t>
+    <t>56,43%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,103 @@
     <t>43,3%</t>
   </si>
   <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
     <t>53,87%</t>
   </si>
   <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>52,05%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,1099 +476,1063 @@
     <t>15,7%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>24,76%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>61,56%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>35,69%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
   </si>
   <si>
     <t>64,31%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>58,57%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,34%</t>
+    <t>34,53%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>35,53%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>69,66%</t>
+    <t>65,47%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>64,47%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C76FEE2-80D6-4059-94DA-C6B2B77967BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFC9C5F-8B3F-4B35-9EF4-AC357E99E2E9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3058,10 +3016,10 @@
         <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2764</v>
@@ -3070,13 +3028,13 @@
         <v>2858190</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3049,13 @@
         <v>1904436</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1765</v>
@@ -3106,13 +3064,13 @@
         <v>1787697</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>3646</v>
@@ -3121,13 +3079,13 @@
         <v>3692132</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0C0B67-EF93-4827-BAAE-09D59878E788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0310CFCA-1AF8-433C-884F-8CCE54766105}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3287,13 @@
         <v>71310</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>125</v>
@@ -3344,13 +3302,13 @@
         <v>126252</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -3359,13 +3317,13 @@
         <v>197562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3338,13 @@
         <v>382836</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>296</v>
@@ -3395,13 +3353,13 @@
         <v>303978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>673</v>
@@ -3410,13 +3368,13 @@
         <v>686814</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3442,13 @@
         <v>133591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -3499,13 +3457,13 @@
         <v>170560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -3514,13 +3472,13 @@
         <v>304152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3493,13 @@
         <v>551738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -3550,13 +3508,13 @@
         <v>439695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -3565,13 +3523,13 @@
         <v>991432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3597,13 @@
         <v>170514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>190</v>
@@ -3654,13 +3612,13 @@
         <v>200494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -3669,13 +3627,13 @@
         <v>371007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3648,13 @@
         <v>511349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>477</v>
@@ -3705,13 +3663,13 @@
         <v>510356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>966</v>
@@ -3720,13 +3678,13 @@
         <v>1021705</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3752,13 @@
         <v>153019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3809,13 +3767,13 @@
         <v>175224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -3824,13 +3782,13 @@
         <v>328243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3803,13 @@
         <v>461598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>384</v>
@@ -3860,13 +3818,13 @@
         <v>440975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -3875,13 +3833,13 @@
         <v>902573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3907,13 @@
         <v>106421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -3964,13 +3922,13 @@
         <v>114230</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3979,13 +3937,13 @@
         <v>220652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3958,13 @@
         <v>323008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>302</v>
@@ -4015,13 +3973,13 @@
         <v>333570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>597</v>
@@ -4030,13 +3988,13 @@
         <v>656577</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4062,13 @@
         <v>134873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>291</v>
@@ -4119,13 +4077,13 @@
         <v>314069</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>411</v>
@@ -4134,13 +4092,13 @@
         <v>448942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4113,13 @@
         <v>424764</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>402</v>
@@ -4170,13 +4128,13 @@
         <v>427808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
@@ -4185,13 +4143,13 @@
         <v>852572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4217,13 @@
         <v>769729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>1026</v>
@@ -4274,13 +4232,13 @@
         <v>1100829</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1742</v>
@@ -4289,13 +4247,13 @@
         <v>1870558</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4268,13 @@
         <v>2655292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2271</v>
@@ -4325,13 +4283,13 @@
         <v>2456382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>4762</v>
@@ -4340,13 +4298,13 @@
         <v>5111674</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4424,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C1666C-73C3-4341-BD02-4DFDD1EFEFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D933D-A7DB-4D9F-A5CB-88D7757FA1A5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4506,13 @@
         <v>79388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -4563,13 +4521,13 @@
         <v>151343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>226</v>
@@ -4578,13 +4536,13 @@
         <v>230732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4557,13 @@
         <v>340075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>252</v>
@@ -4614,13 +4572,13 @@
         <v>244412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>571</v>
@@ -4629,13 +4587,13 @@
         <v>584486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4661,13 @@
         <v>157201</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>215</v>
@@ -4718,13 +4676,13 @@
         <v>208483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -4733,13 +4691,13 @@
         <v>365684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4712,13 @@
         <v>433295</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
@@ -4769,13 +4727,13 @@
         <v>355061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -4784,13 +4742,13 @@
         <v>788356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4816,13 @@
         <v>234453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -4873,13 +4831,13 @@
         <v>230148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>458</v>
@@ -4888,13 +4846,13 @@
         <v>464601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4867,13 @@
         <v>434644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>432</v>
@@ -4924,13 +4882,13 @@
         <v>431238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>845</v>
@@ -4939,13 +4897,13 @@
         <v>865882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +4971,13 @@
         <v>247415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -5028,13 +4986,13 @@
         <v>247916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>447</v>
@@ -5043,13 +5001,13 @@
         <v>495332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5022,13 @@
         <v>398633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>377</v>
@@ -5079,13 +5037,13 @@
         <v>401161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>737</v>
@@ -5094,13 +5052,13 @@
         <v>799793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5126,13 @@
         <v>170949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>200</v>
@@ -5183,13 +5141,13 @@
         <v>228840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -5198,13 +5156,13 @@
         <v>399789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5177,13 @@
         <v>306969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>233</v>
@@ -5234,13 +5192,13 @@
         <v>268009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -5249,13 +5207,13 @@
         <v>574978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5281,13 @@
         <v>258537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>371</v>
@@ -5338,13 +5296,13 @@
         <v>447637</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>648</v>
@@ -5353,13 +5311,13 @@
         <v>706174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5332,13 @@
         <v>332791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -5389,13 +5347,13 @@
         <v>330294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -5404,13 +5362,13 @@
         <v>663085</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5436,13 @@
         <v>1147944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>1396</v>
@@ -5493,13 +5451,13 @@
         <v>1514368</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>2496</v>
@@ -5508,13 +5466,13 @@
         <v>2662312</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5487,13 @@
         <v>2246406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>1942</v>
@@ -5544,13 +5502,13 @@
         <v>2030174</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>4073</v>
@@ -5559,13 +5517,13 @@
         <v>4276580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70AC3F0-7A56-4BDB-A409-D6F64C48179B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6219F-18DE-4FAE-87C8-8182041D265A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5660,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5767,13 +5725,13 @@
         <v>52025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -5782,13 +5740,13 @@
         <v>125327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -5797,13 +5755,13 @@
         <v>177352</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5776,13 @@
         <v>325654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>135</v>
@@ -5833,13 +5791,13 @@
         <v>229630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
@@ -5848,13 +5806,13 @@
         <v>555284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5880,13 @@
         <v>146625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -5937,13 +5895,13 @@
         <v>177898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>277</v>
@@ -5952,13 +5910,13 @@
         <v>324524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5931,13 @@
         <v>280412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>423</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -5988,13 +5946,13 @@
         <v>320679</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>484</v>
@@ -6003,13 +5961,13 @@
         <v>601090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6035,13 @@
         <v>186866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>327</v>
@@ -6092,13 +6050,13 @@
         <v>222823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>517</v>
@@ -6107,13 +6065,13 @@
         <v>409689</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6086,13 @@
         <v>367705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -6143,13 +6101,13 @@
         <v>358857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M11" s="7">
         <v>870</v>
@@ -6158,13 +6116,13 @@
         <v>726562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6190,13 @@
         <v>232644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -6247,13 +6205,13 @@
         <v>269759</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M13" s="7">
         <v>629</v>
@@ -6262,13 +6220,13 @@
         <v>502404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6241,13 @@
         <v>490227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>743</v>
@@ -6298,13 +6256,13 @@
         <v>476692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -6313,13 +6271,13 @@
         <v>966918</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6345,13 @@
         <v>234655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>364</v>
@@ -6402,13 +6360,13 @@
         <v>222817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -6417,13 +6375,13 @@
         <v>457472</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6396,13 @@
         <v>363450</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>633</v>
@@ -6453,13 +6411,13 @@
         <v>369169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1040</v>
@@ -6468,13 +6426,13 @@
         <v>732618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6500,13 @@
         <v>248058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>831</v>
@@ -6557,13 +6515,13 @@
         <v>464232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>1190</v>
@@ -6572,13 +6530,13 @@
         <v>712290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6551,13 @@
         <v>446928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>874</v>
@@ -6608,13 +6566,13 @@
         <v>559845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1540</v>
@@ -6623,13 +6581,13 @@
         <v>1006773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6655,13 @@
         <v>1100874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>2167</v>
@@ -6712,13 +6670,13 @@
         <v>1482857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>3328</v>
@@ -6727,13 +6685,13 @@
         <v>2583731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6706,13 @@
         <v>2274374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>305</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7">
         <v>3184</v>
@@ -6763,13 +6721,13 @@
         <v>2314871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>385</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>5390</v>
@@ -6778,13 +6736,13 @@
         <v>4589245</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6263622D-BEAF-4E98-8CEE-ADD686930437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9629DD05-4028-45CE-A431-7FD29BAA4BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7ABEDAE4-5EC5-4B66-B23E-756BBB834D28}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6772E55F-4D9A-4795-A212-D71ECFF5E2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="569">
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>36,33%</t>
@@ -191,7 +191,7 @@
     <t>62,36%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>44,36%</t>
@@ -248,7 +248,7 @@
     <t>58,04%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>49,39%</t>
@@ -305,7 +305,7 @@
     <t>56,47%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>50,51%</t>
@@ -362,61 +362,112 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>41,07%</t>
@@ -737,802 +788,964 @@
     <t>77,61%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +2157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFC9C5F-8B3F-4B35-9EF4-AC357E99E2E9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A3CAEC-6398-4000-97A0-9ADCBC69F95E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2837,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7">
-        <v>215632</v>
+        <v>112333</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2852,10 +3065,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="I19" s="7">
-        <v>361795</v>
+        <v>162270</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2864,22 +3077,22 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="7">
+        <v>292</v>
+      </c>
+      <c r="N19" s="7">
+        <v>274603</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>574</v>
-      </c>
-      <c r="N19" s="7">
-        <v>577428</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="D20" s="7">
-        <v>282326</v>
+        <v>176777</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>191</v>
+      </c>
+      <c r="I20" s="7">
+        <v>176278</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>303</v>
-      </c>
-      <c r="I20" s="7">
-        <v>304775</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>373</v>
+      </c>
+      <c r="N20" s="7">
+        <v>353055</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>595</v>
-      </c>
-      <c r="N20" s="7">
-        <v>587100</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>518</v>
+        <v>299</v>
       </c>
       <c r="D21" s="7">
-        <v>497958</v>
+        <v>289110</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2954,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>651</v>
+        <v>366</v>
       </c>
       <c r="I21" s="7">
-        <v>666570</v>
+        <v>338548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2969,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1169</v>
+        <v>665</v>
       </c>
       <c r="N21" s="7">
-        <v>1164528</v>
+        <v>627658</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2986,46 +3199,46 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1291</v>
+        <v>109</v>
       </c>
       <c r="D22" s="7">
-        <v>1327127</v>
+        <v>103300</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>173</v>
+      </c>
+      <c r="I22" s="7">
+        <v>199526</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>1473</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1531062</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>2764</v>
+        <v>282</v>
       </c>
       <c r="N22" s="7">
-        <v>2858190</v>
+        <v>302825</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -3043,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1881</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>1904436</v>
+        <v>105549</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>134</v>
@@ -3058,10 +3271,10 @@
         <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>1765</v>
+        <v>112</v>
       </c>
       <c r="I23" s="7">
-        <v>1787697</v>
+        <v>128496</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>137</v>
@@ -3070,22 +3283,22 @@
         <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>3646</v>
+        <v>222</v>
       </c>
       <c r="N23" s="7">
-        <v>3692132</v>
+        <v>234045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3307,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>219</v>
+      </c>
+      <c r="D24" s="7">
+        <v>208849</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>285</v>
+      </c>
+      <c r="I24" s="7">
+        <v>328022</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>504</v>
+      </c>
+      <c r="N24" s="7">
+        <v>536870</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1291</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1327127</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1473</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1531062</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2764</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2858190</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1881</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1904436</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1765</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1787697</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3646</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3692132</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3172</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3231563</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3238</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3318759</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6410</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6550322</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3163,8 +3532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0310CFCA-1AF8-433C-884F-8CCE54766105}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0013FD-50C9-4773-BA1D-4AE8574E977C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3180,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3656,13 @@
         <v>71310</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>125</v>
@@ -3302,13 +3671,13 @@
         <v>126252</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -3317,13 +3686,13 @@
         <v>197562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3707,13 @@
         <v>382836</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>296</v>
@@ -3353,13 +3722,13 @@
         <v>303978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>673</v>
@@ -3368,13 +3737,13 @@
         <v>686814</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3811,13 @@
         <v>133591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -3457,13 +3826,13 @@
         <v>170560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -3472,13 +3841,13 @@
         <v>304152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3862,13 @@
         <v>551738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -3508,28 +3877,28 @@
         <v>439695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
       </c>
       <c r="N8" s="7">
-        <v>991432</v>
+        <v>991433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3940,7 @@
         <v>1236</v>
       </c>
       <c r="N9" s="7">
-        <v>1295584</v>
+        <v>1295585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3597,13 +3966,13 @@
         <v>170514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>190</v>
@@ -3612,13 +3981,13 @@
         <v>200494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -3627,13 +3996,13 @@
         <v>371007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +4017,13 @@
         <v>511349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>477</v>
@@ -3663,13 +4032,13 @@
         <v>510356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>966</v>
@@ -3678,13 +4047,13 @@
         <v>1021705</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +4121,13 @@
         <v>153019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3767,13 +4136,13 @@
         <v>175224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -3782,13 +4151,13 @@
         <v>328243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +4172,13 @@
         <v>461598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>384</v>
@@ -3818,13 +4187,13 @@
         <v>440975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -3833,13 +4202,13 @@
         <v>902573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +4276,13 @@
         <v>106421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -3922,13 +4291,13 @@
         <v>114230</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3937,13 +4306,13 @@
         <v>220652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +4327,13 @@
         <v>323008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>302</v>
@@ -3973,13 +4342,13 @@
         <v>333570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>597</v>
@@ -3988,13 +4357,13 @@
         <v>656577</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4425,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
-        <v>134873</v>
+        <v>66105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>314069</v>
+        <v>116168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
-        <v>411</v>
+        <v>169</v>
       </c>
       <c r="N19" s="7">
-        <v>448942</v>
+        <v>182272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4476,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>424764</v>
+        <v>243681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
-        <v>402</v>
+        <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>427808</v>
+        <v>237828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>786</v>
+        <v>457</v>
       </c>
       <c r="N20" s="7">
-        <v>852572</v>
+        <v>481510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4173,10 +4542,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741877</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4188,10 +4557,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301514</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4205,55 +4574,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>716</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>769729</v>
+        <v>68768</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>1026</v>
+        <v>179</v>
       </c>
       <c r="I22" s="7">
-        <v>1100829</v>
+        <v>197901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>1742</v>
+        <v>242</v>
       </c>
       <c r="N22" s="7">
-        <v>1870558</v>
+        <v>266669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4631,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2491</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7">
-        <v>2655292</v>
+        <v>181083</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" s="7">
         <v>170</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2271</v>
-      </c>
       <c r="I23" s="7">
-        <v>2456382</v>
+        <v>189980</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>4762</v>
+        <v>329</v>
       </c>
       <c r="N23" s="7">
-        <v>5111674</v>
+        <v>371063</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,63 +4682,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387881</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637732</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>716</v>
+      </c>
+      <c r="D25" s="7">
+        <v>769729</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1026</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1100829</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1742</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1870558</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2491</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2655292</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2271</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2456382</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4762</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5111674</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3207</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425021</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3557211</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6982232</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4382,8 +4907,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D933D-A7DB-4D9F-A5CB-88D7757FA1A5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EF076-CE87-4613-8C06-CFA24417A969}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4399,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +5031,13 @@
         <v>79388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -4521,13 +5046,13 @@
         <v>151343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>226</v>
@@ -4536,13 +5061,13 @@
         <v>230732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +5082,13 @@
         <v>340075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>252</v>
@@ -4572,13 +5097,13 @@
         <v>244412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>571</v>
@@ -4587,13 +5112,13 @@
         <v>584486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +5186,13 @@
         <v>157201</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>215</v>
@@ -4676,13 +5201,13 @@
         <v>208483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -4691,13 +5216,13 @@
         <v>365684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +5237,13 @@
         <v>433295</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
@@ -4727,13 +5252,13 @@
         <v>355061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -4742,13 +5267,13 @@
         <v>788356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +5341,13 @@
         <v>234453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -4831,13 +5356,13 @@
         <v>230148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>458</v>
@@ -4846,13 +5371,13 @@
         <v>464601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +5392,13 @@
         <v>434644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>432</v>
@@ -4882,13 +5407,13 @@
         <v>431238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>845</v>
@@ -4897,13 +5422,13 @@
         <v>865882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +5496,13 @@
         <v>247415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -4986,13 +5511,13 @@
         <v>247916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>447</v>
@@ -5001,13 +5526,13 @@
         <v>495332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5547,13 @@
         <v>398633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>377</v>
@@ -5037,13 +5562,13 @@
         <v>401161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>737</v>
@@ -5052,13 +5577,13 @@
         <v>799793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,10 +5651,10 @@
         <v>170949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>52</v>
@@ -5141,13 +5666,13 @@
         <v>228840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -5156,13 +5681,13 @@
         <v>399789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5702,13 @@
         <v>306969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>233</v>
@@ -5192,13 +5717,13 @@
         <v>268009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -5207,13 +5732,13 @@
         <v>574978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5800,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7">
-        <v>258537</v>
+        <v>126800</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
-        <v>371</v>
+        <v>164</v>
       </c>
       <c r="I19" s="7">
-        <v>447637</v>
+        <v>173837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
-        <v>648</v>
+        <v>288</v>
       </c>
       <c r="N19" s="7">
-        <v>706174</v>
+        <v>300637</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5851,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7">
-        <v>332791</v>
+        <v>207530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="I20" s="7">
-        <v>330294</v>
+        <v>203925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
-        <v>634</v>
+        <v>391</v>
       </c>
       <c r="N20" s="7">
-        <v>663085</v>
+        <v>411455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5392,10 +5917,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5407,10 +5932,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5424,55 +5949,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1100</v>
+        <v>153</v>
       </c>
       <c r="D22" s="7">
-        <v>1147944</v>
+        <v>131737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
-        <v>1396</v>
+        <v>207</v>
       </c>
       <c r="I22" s="7">
-        <v>1514368</v>
+        <v>273800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
-        <v>2496</v>
+        <v>360</v>
       </c>
       <c r="N22" s="7">
-        <v>2662312</v>
+        <v>405537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,49 +6006,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2131</v>
+        <v>149</v>
       </c>
       <c r="D23" s="7">
-        <v>2246406</v>
+        <v>125261</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="H23" s="7">
-        <v>1942</v>
+        <v>94</v>
       </c>
       <c r="I23" s="7">
-        <v>2030174</v>
+        <v>126369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
-        <v>4073</v>
+        <v>243</v>
       </c>
       <c r="N23" s="7">
-        <v>4276580</v>
+        <v>251630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,63 +6057,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1147944</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1396</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1514368</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2496</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2662312</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2131</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2246406</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1942</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2030174</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4073</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4276580</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5601,8 +6282,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6219F-18DE-4FAE-87C8-8182041D265A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E89FF-2B0B-4610-B908-3E52688B0665}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5618,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5722,46 +6403,46 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>52025</v>
+        <v>57763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>125327</v>
+        <v>115072</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
       </c>
       <c r="N4" s="7">
-        <v>177352</v>
+        <v>172835</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,46 +6454,46 @@
         <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>325654</v>
+        <v>342224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>135</v>
       </c>
       <c r="I5" s="7">
-        <v>229630</v>
+        <v>198128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
       </c>
       <c r="N5" s="7">
-        <v>555284</v>
+        <v>540352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +6505,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5839,7 +6520,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5854,7 +6535,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5877,46 +6558,46 @@
         <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>146625</v>
+        <v>149562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>451</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>367</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
       </c>
       <c r="I7" s="7">
-        <v>177898</v>
+        <v>165802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
         <v>277</v>
       </c>
       <c r="N7" s="7">
-        <v>324524</v>
+        <v>315363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,46 +6609,46 @@
         <v>201</v>
       </c>
       <c r="D8" s="7">
-        <v>280412</v>
+        <v>272799</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
       </c>
       <c r="I8" s="7">
-        <v>320679</v>
+        <v>345702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>484</v>
       </c>
       <c r="N8" s="7">
-        <v>601090</v>
+        <v>618502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +6660,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>427037</v>
+        <v>422361</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5994,7 +6675,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6009,7 +6690,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925614</v>
+        <v>933865</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6032,46 +6713,46 @@
         <v>190</v>
       </c>
       <c r="D10" s="7">
-        <v>186866</v>
+        <v>183535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>327</v>
       </c>
       <c r="I10" s="7">
-        <v>222823</v>
+        <v>210475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>517</v>
       </c>
       <c r="N10" s="7">
-        <v>409689</v>
+        <v>394010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,46 +6764,46 @@
         <v>354</v>
       </c>
       <c r="D11" s="7">
-        <v>367705</v>
+        <v>350266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
       </c>
       <c r="I11" s="7">
-        <v>358857</v>
+        <v>330390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="M11" s="7">
         <v>870</v>
       </c>
       <c r="N11" s="7">
-        <v>726562</v>
+        <v>680656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6815,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>554571</v>
+        <v>533801</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6149,7 +6830,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>581680</v>
+        <v>540865</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6164,7 +6845,7 @@
         <v>1387</v>
       </c>
       <c r="N12" s="7">
-        <v>1136251</v>
+        <v>1074666</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6187,46 +6868,46 @@
         <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>232644</v>
+        <v>224352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
       </c>
       <c r="I13" s="7">
-        <v>269759</v>
+        <v>274506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>629</v>
       </c>
       <c r="N13" s="7">
-        <v>502404</v>
+        <v>498858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,46 +6919,46 @@
         <v>431</v>
       </c>
       <c r="D14" s="7">
-        <v>490227</v>
+        <v>662385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>743</v>
       </c>
       <c r="I14" s="7">
-        <v>476692</v>
+        <v>437616</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
       </c>
       <c r="N14" s="7">
-        <v>966918</v>
+        <v>1100000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6970,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722871</v>
+        <v>886737</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6304,7 +6985,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746451</v>
+        <v>712122</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6319,7 +7000,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469322</v>
+        <v>1598858</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6342,46 +7023,46 @@
         <v>254</v>
       </c>
       <c r="D16" s="7">
-        <v>234655</v>
+        <v>219753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>364</v>
       </c>
       <c r="I16" s="7">
-        <v>222817</v>
+        <v>204671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>39</v>
+        <v>502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
       </c>
       <c r="N16" s="7">
-        <v>457472</v>
+        <v>424424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,46 +7074,46 @@
         <v>407</v>
       </c>
       <c r="D17" s="7">
-        <v>363450</v>
+        <v>339531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>508</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="H17" s="7">
         <v>633</v>
       </c>
       <c r="I17" s="7">
-        <v>369169</v>
+        <v>338830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>510</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="M17" s="7">
         <v>1040</v>
       </c>
       <c r="N17" s="7">
-        <v>732618</v>
+        <v>678361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +7125,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598105</v>
+        <v>559284</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6459,7 +7140,7 @@
         <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>591986</v>
+        <v>543501</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6474,7 +7155,7 @@
         <v>1658</v>
       </c>
       <c r="N18" s="7">
-        <v>1190090</v>
+        <v>1102785</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6494,49 +7175,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>359</v>
+        <v>175</v>
       </c>
       <c r="D19" s="7">
-        <v>248058</v>
+        <v>114569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="H19" s="7">
-        <v>831</v>
+        <v>296</v>
       </c>
       <c r="I19" s="7">
-        <v>464232</v>
+        <v>148857</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M19" s="7">
         <v>471</v>
       </c>
-      <c r="M19" s="7">
-        <v>1190</v>
-      </c>
       <c r="N19" s="7">
-        <v>712290</v>
+        <v>263426</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,49 +7226,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>666</v>
+        <v>394</v>
       </c>
       <c r="D20" s="7">
-        <v>446928</v>
+        <v>252732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
-        <v>874</v>
+        <v>530</v>
       </c>
       <c r="I20" s="7">
-        <v>559845</v>
+        <v>458932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
-        <v>1540</v>
+        <v>924</v>
       </c>
       <c r="N20" s="7">
-        <v>1006773</v>
+        <v>711664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +7277,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>694986</v>
+        <v>367301</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6611,10 +7292,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1024077</v>
+        <v>607789</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6626,10 +7307,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2730</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1719063</v>
+        <v>975090</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6643,55 +7324,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1161</v>
+        <v>184</v>
       </c>
       <c r="D22" s="7">
-        <v>1100874</v>
+        <v>116568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>534</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="H22" s="7">
-        <v>2167</v>
+        <v>535</v>
       </c>
       <c r="I22" s="7">
-        <v>1482857</v>
+        <v>267629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
-        <v>3328</v>
+        <v>719</v>
       </c>
       <c r="N22" s="7">
-        <v>2583731</v>
+        <v>384196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,49 +7381,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2206</v>
+        <v>272</v>
       </c>
       <c r="D23" s="7">
-        <v>2274374</v>
+        <v>164507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
-        <v>3184</v>
+        <v>344</v>
       </c>
       <c r="I23" s="7">
-        <v>2314871</v>
+        <v>156640</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
-        <v>5390</v>
+        <v>616</v>
       </c>
       <c r="N23" s="7">
-        <v>4589245</v>
+        <v>321147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,63 +7432,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>456</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281075</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424269</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705343</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1161</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1066102</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1387012</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3328</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2453114</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2206</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2384444</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3184</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2266236</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5390</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4650680</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3367</v>
       </c>
-      <c r="D24" s="7">
-        <v>3375248</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3450546</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5351</v>
       </c>
-      <c r="I24" s="7">
-        <v>3797728</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3653248</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8718</v>
       </c>
-      <c r="N24" s="7">
-        <v>7172976</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7103794</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
